--- a/R/practice/configure shiny ui/bbos_user_config.xlsx
+++ b/R/practice/configure shiny ui/bbos_user_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Catherine\Documents\Development\learning\R\practice\configure shiny ui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4691D2B-4204-45BD-B00F-8203EB494162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605D1B83-95BC-4D9C-BAF1-11FC49171777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AAD3DC31-2CEF-44B9-956F-90112AADF1F0}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,7 +493,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>1.01</v>

--- a/R/practice/configure shiny ui/bbos_user_config.xlsx
+++ b/R/practice/configure shiny ui/bbos_user_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Catherine\Documents\Development\learning\R\practice\configure shiny ui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605D1B83-95BC-4D9C-BAF1-11FC49171777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146F25EF-F102-4824-86D7-6F11430202A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AAD3DC31-2CEF-44B9-956F-90112AADF1F0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>module</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>version</t>
@@ -424,7 +421,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -441,12 +438,12 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -512,10 +509,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>1.01</v>

--- a/R/practice/configure shiny ui/bbos_user_config.xlsx
+++ b/R/practice/configure shiny ui/bbos_user_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Catherine\Documents\Development\learning\R\practice\configure shiny ui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146F25EF-F102-4824-86D7-6F11430202A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27926F13-F1BE-4AC1-AD6A-3A027CCCA815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AAD3DC31-2CEF-44B9-956F-90112AADF1F0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>module</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>download</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -512,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>1.01</v>
